--- a/biology/Botanique/Kliment_Timiriazev/Kliment_Timiriazev.xlsx
+++ b/biology/Botanique/Kliment_Timiriazev/Kliment_Timiriazev.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kliment Arkadievitch Timiriazev[1] (en russe : Климе́нт Арка́дьевич Тимиря́зев) est un biologiste, physiologiste et botaniste russe né en 1843 à Saint-Pétersbourg et décédé en 1920 à Moscou.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kliment Arkadievitch Timiriazev (en russe : Климе́нт Арка́дьевич Тимиря́зев) est un biologiste, physiologiste et botaniste russe né en 1843 à Saint-Pétersbourg et décédé en 1920 à Moscou.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études de droit, il se tourne vers les sciences exactes : mathématiques, physique et biologie. Professeur de botanique à l'Académie Petrovski (qui porte aujourd'hui son nom) il y crée une faculté et un laboratoire de physiologie. Il diffuse en Russie les théories de Darwin et adopte des positions politiques qui lui vaudront une suspension de 1911 à 1917. Après la révolution, il devient commissaire du peuple (ministre) du Comité Scientifique d'État.
 </t>
@@ -542,7 +556,9 @@
           <t>Honneurs posthumes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom a été donné à l'Académie d'Agriculture de Moscou, à une station du métro de Moscou et à un cratère de la lune.
 </t>
